--- a/resources/GINF2/students.xlsx
+++ b/resources/GINF2/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GINF2_2021_2022\XML\Projets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GINF2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EFE1528-C15D-47E9-95AF-FBD3E536A60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE9EC44-09BC-4478-863A-DB35AC298CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{13384122-1722-404B-9BCC-C24B4521C5B6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{13384122-1722-404B-9BCC-C24B4521C5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,10 +481,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -504,10 +504,10 @@
         <v>18000031</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>36557</v>
@@ -519,7 +519,7 @@
         <v>684763592</v>
       </c>
       <c r="G2" t="str">
-        <f>CONCATENATE(B2,".",C2,"@etu.uae.ac.ma")</f>
+        <f>CONCATENATE(C2,".",B2,"@etu.uae.ac.ma")</f>
         <v>Ginf2_FN1.Ginf2_LN1@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -528,10 +528,10 @@
         <v>18000032</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>36558</v>
@@ -543,7 +543,7 @@
         <v>684766593</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G11" si="0">CONCATENATE(B3,".",C3,"@etu.uae.ac.ma")</f>
+        <f>CONCATENATE(C3,".",B3,"@etu.uae.ac.ma")</f>
         <v>Ginf2_FN2.Ginf2_LN2@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -552,10 +552,10 @@
         <v>18000033</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>36194</v>
@@ -567,7 +567,7 @@
         <v>684773594</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C4,".",B4,"@etu.uae.ac.ma")</f>
         <v>Ginf2_FN3.Ginf2_LN3@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -576,10 +576,10 @@
         <v>18000034</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>35830</v>
@@ -591,7 +591,7 @@
         <v>684063595</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C5,".",B5,"@etu.uae.ac.ma")</f>
         <v>Ginf2_FN4.Ginf2_LN4@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -600,10 +600,10 @@
         <v>18000035</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>36196</v>
@@ -615,7 +615,7 @@
         <v>684723596</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C6,".",B6,"@etu.uae.ac.ma")</f>
         <v>Ginf2_FN5.Ginf2_LN5@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -624,10 +624,10 @@
         <v>18000036</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>36562</v>
@@ -639,7 +639,7 @@
         <v>684763597</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C7,".",B7,"@etu.uae.ac.ma")</f>
         <v>Ginf2_FN6.Ginf2_LN6@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -648,10 +648,10 @@
         <v>18000037</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="1">
         <v>36563</v>
@@ -663,7 +663,7 @@
         <v>684763508</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C8,".",B8,"@etu.uae.ac.ma")</f>
         <v>Ginf2_FN7.Ginf2_LN7@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -672,10 +672,10 @@
         <v>18000038</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>35834</v>
@@ -687,7 +687,7 @@
         <v>684963599</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C9,".",B9,"@etu.uae.ac.ma")</f>
         <v>Ginf2_FN8.Ginf2_LN8@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -696,10 +696,10 @@
         <v>18000039</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" s="1">
         <v>36565</v>
@@ -711,7 +711,7 @@
         <v>684769600</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C10,".",B10,"@etu.uae.ac.ma")</f>
         <v>Ginf2_FN9.Ginf2_LN9@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -720,10 +720,10 @@
         <v>18000040</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
       <c r="D11" s="1">
         <v>36201</v>
@@ -735,7 +735,7 @@
         <v>694763601</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C11,".",B11,"@etu.uae.ac.ma")</f>
         <v>Ginf2_FN10.Ginf2_LN10@etu.uae.ac.ma</v>
       </c>
     </row>

--- a/resources/GINF2/students.xlsx
+++ b/resources/GINF2/students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GINF2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE9EC44-09BC-4478-863A-DB35AC298CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2339E792-D5DD-4738-9AA1-29210D416F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{13384122-1722-404B-9BCC-C24B4521C5B6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="158">
   <si>
     <t>CNE</t>
   </si>
@@ -55,77 +55,483 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Ginf2_FN1</t>
-  </si>
-  <si>
-    <t>Ginf2_LN1</t>
-  </si>
-  <si>
     <t>Ginf2</t>
   </si>
   <si>
-    <t>Ginf2_FN2</t>
-  </si>
-  <si>
-    <t>Ginf2_LN2</t>
-  </si>
-  <si>
-    <t>Ginf2_FN3</t>
-  </si>
-  <si>
-    <t>Ginf2_LN3</t>
-  </si>
-  <si>
-    <t>Ginf2_FN4</t>
-  </si>
-  <si>
-    <t>Ginf2_LN4</t>
-  </si>
-  <si>
-    <t>Ginf2_FN5</t>
-  </si>
-  <si>
-    <t>Ginf2_LN5</t>
-  </si>
-  <si>
-    <t>Ginf2_FN6</t>
-  </si>
-  <si>
-    <t>Ginf2_LN6</t>
-  </si>
-  <si>
-    <t>Ginf2_FN7</t>
-  </si>
-  <si>
-    <t>Ginf2_LN7</t>
-  </si>
-  <si>
-    <t>Ginf2_FN8</t>
-  </si>
-  <si>
-    <t>Ginf2_LN8</t>
-  </si>
-  <si>
-    <t>Ginf2_FN9</t>
-  </si>
-  <si>
-    <t>Ginf2_LN9</t>
-  </si>
-  <si>
-    <t>Ginf2_FN10</t>
-  </si>
-  <si>
-    <t>Ginf2_LN10</t>
+    <t>Justina Fischer</t>
+  </si>
+  <si>
+    <t>Jin Strickland</t>
+  </si>
+  <si>
+    <t>Denton Smith</t>
+  </si>
+  <si>
+    <t>Phoebe Dean</t>
+  </si>
+  <si>
+    <t>Colt Gibbs</t>
+  </si>
+  <si>
+    <t>Eaton Fitzgerald</t>
+  </si>
+  <si>
+    <t>Burke Carr</t>
+  </si>
+  <si>
+    <t>Cleo Carpenter</t>
+  </si>
+  <si>
+    <t>Hiram Bridges</t>
+  </si>
+  <si>
+    <t>Boris Brewer</t>
+  </si>
+  <si>
+    <t>Basil Mcfadden</t>
+  </si>
+  <si>
+    <t>Pandora Franklin</t>
+  </si>
+  <si>
+    <t>Leroy Bates</t>
+  </si>
+  <si>
+    <t>Quintessa Grimes</t>
+  </si>
+  <si>
+    <t>Avram Wade</t>
+  </si>
+  <si>
+    <t>Kareem Castro</t>
+  </si>
+  <si>
+    <t>Lani Dudley</t>
+  </si>
+  <si>
+    <t>Avye Barnett</t>
+  </si>
+  <si>
+    <t>Kyla Reynolds</t>
+  </si>
+  <si>
+    <t>Yuli Floyd</t>
+  </si>
+  <si>
+    <t>Ezekiel Serrano</t>
+  </si>
+  <si>
+    <t>Scarlett Williamson</t>
+  </si>
+  <si>
+    <t>Noelle Dyer</t>
+  </si>
+  <si>
+    <t>Silas Holland</t>
+  </si>
+  <si>
+    <t>Candace Rosales</t>
+  </si>
+  <si>
+    <t>Ocean Ayers</t>
+  </si>
+  <si>
+    <t>Urielle Mcgowan</t>
+  </si>
+  <si>
+    <t>Maisie Mccarthy</t>
+  </si>
+  <si>
+    <t>Erica Cobb</t>
+  </si>
+  <si>
+    <t>Cedric Galloway</t>
+  </si>
+  <si>
+    <t>Ainsley Lynch</t>
+  </si>
+  <si>
+    <t>John Horne</t>
+  </si>
+  <si>
+    <t>Conan Callahan</t>
+  </si>
+  <si>
+    <t>Jason Cherry</t>
+  </si>
+  <si>
+    <t>Neil Shepherd</t>
+  </si>
+  <si>
+    <t>Clementine Wood</t>
+  </si>
+  <si>
+    <t>Jason Clarke</t>
+  </si>
+  <si>
+    <t>Omar Ratliff</t>
+  </si>
+  <si>
+    <t>Nell Maynard</t>
+  </si>
+  <si>
+    <t>Jasper Noel</t>
+  </si>
+  <si>
+    <t>Aileen Mullen</t>
+  </si>
+  <si>
+    <t>Gray Kim</t>
+  </si>
+  <si>
+    <t>Nicholas Stout</t>
+  </si>
+  <si>
+    <t>Kelsie Gates</t>
+  </si>
+  <si>
+    <t>Sandra Galloway</t>
+  </si>
+  <si>
+    <t>Patricia Mueller</t>
+  </si>
+  <si>
+    <t>Emerson Burch</t>
+  </si>
+  <si>
+    <t>Colt Sherman</t>
+  </si>
+  <si>
+    <t>Armand Oneil</t>
+  </si>
+  <si>
+    <t>Tasha Owens</t>
+  </si>
+  <si>
+    <t>Beau Klein</t>
+  </si>
+  <si>
+    <t>Venus Parks</t>
+  </si>
+  <si>
+    <t>Tamekah Mccray</t>
+  </si>
+  <si>
+    <t>Risa Holloway</t>
+  </si>
+  <si>
+    <t>Desirae Cabrera</t>
+  </si>
+  <si>
+    <t>Eve Lang</t>
+  </si>
+  <si>
+    <t>Nyssa Aguirre</t>
+  </si>
+  <si>
+    <t>Doris Hatfield</t>
+  </si>
+  <si>
+    <t>Ria Osborn</t>
+  </si>
+  <si>
+    <t>Stewart Burnett</t>
+  </si>
+  <si>
+    <t>Quinlan Stewart</t>
+  </si>
+  <si>
+    <t>Carlos Odom</t>
+  </si>
+  <si>
+    <t>Wylie Boyd</t>
+  </si>
+  <si>
+    <t>Gwendolyn Irwin</t>
+  </si>
+  <si>
+    <t>Destiny Lowery</t>
+  </si>
+  <si>
+    <t>Tamekah Merrill</t>
+  </si>
+  <si>
+    <t>Emi Sandoval</t>
+  </si>
+  <si>
+    <t>Hunter Frank</t>
+  </si>
+  <si>
+    <t>Philip Molina</t>
+  </si>
+  <si>
+    <t>Solomon Carney</t>
+  </si>
+  <si>
+    <t>Oliver Montgomery</t>
+  </si>
+  <si>
+    <t>Matthew Lucas</t>
+  </si>
+  <si>
+    <t>Britanni Brown</t>
+  </si>
+  <si>
+    <t>Malachi Gonzalez</t>
+  </si>
+  <si>
+    <t>Desiree Lynn</t>
+  </si>
+  <si>
+    <t>Brett Ferrell</t>
+  </si>
+  <si>
+    <t>Quail Howard</t>
+  </si>
+  <si>
+    <t>Dennis Weber</t>
+  </si>
+  <si>
+    <t>Zia Emerson</t>
+  </si>
+  <si>
+    <t>Kamal Soto</t>
+  </si>
+  <si>
+    <t>Odette Dawson</t>
+  </si>
+  <si>
+    <t>Meredith York</t>
+  </si>
+  <si>
+    <t>Yardley Wilson</t>
+  </si>
+  <si>
+    <t>Buffy Frost</t>
+  </si>
+  <si>
+    <t>Cleo Cameron</t>
+  </si>
+  <si>
+    <t>Leilani Owen</t>
+  </si>
+  <si>
+    <t>Reed Baker</t>
+  </si>
+  <si>
+    <t>Frances Stevenson</t>
+  </si>
+  <si>
+    <t>Cruz Hunter</t>
+  </si>
+  <si>
+    <t>Colin Garza</t>
+  </si>
+  <si>
+    <t>Herrod Cannon</t>
+  </si>
+  <si>
+    <t>Carter Bell</t>
+  </si>
+  <si>
+    <t>Allegra Guzman</t>
+  </si>
+  <si>
+    <t>Nayda Hunter</t>
+  </si>
+  <si>
+    <t>Zia Little</t>
+  </si>
+  <si>
+    <t>Remedios Burt</t>
+  </si>
+  <si>
+    <t>Pascale Lawson</t>
+  </si>
+  <si>
+    <t>Aristotle Ramsey</t>
+  </si>
+  <si>
+    <t>Neville Molina</t>
+  </si>
+  <si>
+    <t>Alexander Park</t>
+  </si>
+  <si>
+    <t>05 49 24 53 91</t>
+  </si>
+  <si>
+    <t>04 42 16 90 64</t>
+  </si>
+  <si>
+    <t>01 03 22 62 83</t>
+  </si>
+  <si>
+    <t>08 39 65 30 12</t>
+  </si>
+  <si>
+    <t>02 84 24 32 18</t>
+  </si>
+  <si>
+    <t>04 07 43 59 72</t>
+  </si>
+  <si>
+    <t>08 53 83 02 84</t>
+  </si>
+  <si>
+    <t>07 18 52 51 68</t>
+  </si>
+  <si>
+    <t>02 82 83 25 83</t>
+  </si>
+  <si>
+    <t>02 86 43 85 73</t>
+  </si>
+  <si>
+    <t>07 48 48 89 52</t>
+  </si>
+  <si>
+    <t>03 26 81 34 45</t>
+  </si>
+  <si>
+    <t>01 32 57 18 74</t>
+  </si>
+  <si>
+    <t>02 33 08 02 87</t>
+  </si>
+  <si>
+    <t>08 32 33 17 94</t>
+  </si>
+  <si>
+    <t>08 31 08 57 62</t>
+  </si>
+  <si>
+    <t>03 27 43 42 45</t>
+  </si>
+  <si>
+    <t>04 86 51 06 65</t>
+  </si>
+  <si>
+    <t>09 14 12 78 33</t>
+  </si>
+  <si>
+    <t>02 90 26 51 36</t>
+  </si>
+  <si>
+    <t>02 69 22 10 87</t>
+  </si>
+  <si>
+    <t>02 87 14 82 44</t>
+  </si>
+  <si>
+    <t>07 82 22 19 68</t>
+  </si>
+  <si>
+    <t>02 22 87 54 13</t>
+  </si>
+  <si>
+    <t>06 48 02 44 68</t>
+  </si>
+  <si>
+    <t>02 43 39 25 22</t>
+  </si>
+  <si>
+    <t>04 17 11 64 76</t>
+  </si>
+  <si>
+    <t>08 71 75 71 82</t>
+  </si>
+  <si>
+    <t>05 11 15 90 43</t>
+  </si>
+  <si>
+    <t>08 28 88 11 35</t>
+  </si>
+  <si>
+    <t>08 75 02 71 61</t>
+  </si>
+  <si>
+    <t>03 98 85 28 63</t>
+  </si>
+  <si>
+    <t>09 88 03 71 13</t>
+  </si>
+  <si>
+    <t>06 85 16 68 85</t>
+  </si>
+  <si>
+    <t>04 34 18 02 74</t>
+  </si>
+  <si>
+    <t>09 37 62 62 59</t>
+  </si>
+  <si>
+    <t>02 67 16 83 31</t>
+  </si>
+  <si>
+    <t>02 61 67 68 96</t>
+  </si>
+  <si>
+    <t>05 44 92 54 15</t>
+  </si>
+  <si>
+    <t>07 55 38 86 63</t>
+  </si>
+  <si>
+    <t>01 76 64 75 53</t>
+  </si>
+  <si>
+    <t>09 19 09 86 38</t>
+  </si>
+  <si>
+    <t>07 30 51 83 57</t>
+  </si>
+  <si>
+    <t>02 21 52 15 70</t>
+  </si>
+  <si>
+    <t>04 12 71 71 87</t>
+  </si>
+  <si>
+    <t>03 18 97 15 97</t>
+  </si>
+  <si>
+    <t>02 76 58 67 75</t>
+  </si>
+  <si>
+    <t>07 22 68 10 14</t>
+  </si>
+  <si>
+    <t>06 51 08 49 82</t>
+  </si>
+  <si>
+    <t>06 18 15 79 02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,7 +559,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6682E3AD-C939-4EF0-9D79-19EEA0DCD241}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="370" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,245 +907,1206 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>18000031</v>
+        <v>18000151</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1">
-        <v>36557</v>
+        <v>36606</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>684763592</v>
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
       </c>
       <c r="G2" t="str">
-        <f>CONCATENATE(C2,".",B2,"@etu.uae.ac.ma")</f>
-        <v>Ginf2_FN1.Ginf2_LN1@etu.uae.ac.ma</v>
+        <f>CONCATENATE(SUBSTITUTE(B2," ",""),".",SUBSTITUTE(C2," ",""),"@etu.uae.ac.ma")</f>
+        <v>AlexanderPark.NevilleMolina@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>18000032</v>
+        <v>18000152</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="D3" s="1">
-        <v>36558</v>
+        <v>37021</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>684766593</v>
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
       </c>
       <c r="G3" t="str">
-        <f>CONCATENATE(C3,".",B3,"@etu.uae.ac.ma")</f>
-        <v>Ginf2_FN2.Ginf2_LN2@etu.uae.ac.ma</v>
+        <f t="shared" ref="G3:G51" si="0">CONCATENATE(SUBSTITUTE(B3," ",""),".",SUBSTITUTE(C3," ",""),"@etu.uae.ac.ma")</f>
+        <v>AristotleRamsey.PascaleLawson@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>18000033</v>
+        <v>18000153</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1">
-        <v>36194</v>
+        <v>35922</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>684773594</v>
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
       </c>
       <c r="G4" t="str">
-        <f>CONCATENATE(C4,".",B4,"@etu.uae.ac.ma")</f>
-        <v>Ginf2_FN3.Ginf2_LN3@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>RemediosBurt.ZiaLittle@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>18000034</v>
+        <v>18000154</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
-        <v>35830</v>
+        <v>35858</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>684063595</v>
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>154</v>
       </c>
       <c r="G5" t="str">
-        <f>CONCATENATE(C5,".",B5,"@etu.uae.ac.ma")</f>
-        <v>Ginf2_FN4.Ginf2_LN4@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>NaydaHunter.AllegraGuzman@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>18000035</v>
+        <v>18000155</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1">
-        <v>36196</v>
+        <v>35856</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>684723596</v>
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
       </c>
       <c r="G6" t="str">
-        <f>CONCATENATE(C6,".",B6,"@etu.uae.ac.ma")</f>
-        <v>Ginf2_FN5.Ginf2_LN5@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>CarterBell.HerrodCannon@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>18000036</v>
+        <v>18000156</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1">
-        <v>36562</v>
+        <v>37167</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>684763597</v>
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>152</v>
       </c>
       <c r="G7" t="str">
-        <f>CONCATENATE(C7,".",B7,"@etu.uae.ac.ma")</f>
-        <v>Ginf2_FN6.Ginf2_LN6@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>ColinGarza.CruzHunter@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>18000037</v>
+        <v>18000157</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1">
-        <v>36563</v>
+        <v>37582</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>684763508</v>
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>151</v>
       </c>
       <c r="G8" t="str">
-        <f>CONCATENATE(C8,".",B8,"@etu.uae.ac.ma")</f>
-        <v>Ginf2_FN7.Ginf2_LN7@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>FrancesStevenson.ReedBaker@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>18000038</v>
+        <v>18000158</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1">
-        <v>35834</v>
+        <v>35524</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>684963599</v>
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
       </c>
       <c r="G9" t="str">
-        <f>CONCATENATE(C9,".",B9,"@etu.uae.ac.ma")</f>
-        <v>Ginf2_FN8.Ginf2_LN8@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>LeilaniOwen.CleoCameron@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>18000039</v>
+        <v>18000159</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1">
-        <v>36565</v>
+        <v>37090</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>684769600</v>
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
       </c>
       <c r="G10" t="str">
-        <f>CONCATENATE(C10,".",B10,"@etu.uae.ac.ma")</f>
-        <v>Ginf2_FN9.Ginf2_LN9@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>BuffyFrost.YardleyWilson@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>18000040</v>
+        <v>18000160</v>
       </c>
       <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1">
+        <v>35669</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>MeredithYork.OdetteDawson@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>18000161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="1">
+        <v>36603</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>KamalSoto.ZiaEmerson@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>18000162</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="1">
+        <v>35810</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>DennisWeber.QuailHoward@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>18000163</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1">
+        <v>36993</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>BrettFerrell.DesireeLynn@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>18000164</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1">
+        <v>37541</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>MalachiGonzalez.BritanniBrown@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>18000165</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1">
+        <v>36136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>MatthewLucas.OliverMontgomery@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>18000166</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1">
+        <v>36392</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>SolomonCarney.PhilipMolina@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>18000167</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1">
+        <v>36682</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>HunterFrank.EmiSandoval@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18000168</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1">
+        <v>37225</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>TamekahMerrill.DestinyLowery@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18000169</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="1">
+        <v>37401</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>GwendolynIrwin.WylieBoyd@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>18000170</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1">
+        <v>35933</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>CarlosOdom.QuinlanStewart@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>18000171</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1">
+        <v>37512</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>StewartBurnett.RiaOsborn@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>18000172</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1">
+        <v>37264</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>DorisHatfield.NyssaAguirre@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>18000173</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1">
+        <v>37520</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>EveLang.DesiraeCabrera@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>18000174</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1">
+        <v>36798</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>RisaHolloway.TamekahMccray@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>18000175</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1">
+        <v>37470</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>VenusParks.BeauKlein@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>18000176</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1">
+        <v>37545</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>TashaOwens.ArmandOneil@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>18000177</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1">
+        <v>35853</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>ColtSherman.EmersonBurch@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>18000178</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1">
+        <v>36714</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>PatriciaMueller.SandraGalloway@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>18000179</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1">
+        <v>36227</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>KelsieGates.NicholasStout@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>18000180</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1">
+        <v>37323</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>GrayKim.AileenMullen@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>18000181</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="1">
+        <v>36180</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>JasperNoel.NellMaynard@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>18000182</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="1">
+        <v>35962</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>OmarRatliff.JasonClarke@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>18000183</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1">
+        <v>36125</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>ClementineWood.NeilShepherd@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>18000184</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="1">
+        <v>35792</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>JasonCherry.ConanCallahan@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>18000185</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1">
+        <v>36460</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>JohnHorne.AinsleyLynch@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>18000186</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1">
+        <v>36032</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>CedricGalloway.EricaCobb@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>18000187</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="1">
+        <v>36266</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>MaisieMccarthy.UrielleMcgowan@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>18000188</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="1">
+        <v>36209</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>OceanAyers.CandaceRosales@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>18000189</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1">
+        <v>37185</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>SilasHolland.NoelleDyer@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>18000190</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1">
+        <v>37066</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>ScarlettWilliamson.EzekielSerrano@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>18000191</v>
+      </c>
+      <c r="B42" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C42" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1">
-        <v>36201</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D42" s="1">
+        <v>36078</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>YuliFloyd.KylaReynolds@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>18000192</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="1">
+        <v>36331</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>AvyeBarnett.LaniDudley@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>18000193</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="1">
+        <v>35514</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>KareemCastro.AvramWade@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>18000194</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1">
+        <v>36764</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>QuintessaGrimes.LeroyBates@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>18000195</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="1">
+        <v>36496</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>PandoraFranklin.BasilMcfadden@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>18000196</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="1">
+        <v>35662</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>BorisBrewer.HiramBridges@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>18000197</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="1">
+        <v>35990</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>CleoCarpenter.BurkeCarr@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>18000198</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1">
+        <v>35945</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>EatonFitzgerald.ColtGibbs@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>18000199</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1">
+        <v>36274</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>PhoebeDean.DentonSmith@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>18000200</v>
+      </c>
+      <c r="B51" t="s">
         <v>9</v>
       </c>
-      <c r="F11">
-        <v>694763601</v>
-      </c>
-      <c r="G11" t="str">
-        <f>CONCATENATE(C11,".",B11,"@etu.uae.ac.ma")</f>
-        <v>Ginf2_FN10.Ginf2_LN10@etu.uae.ac.ma</v>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1">
+        <v>36856</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>JinStrickland.JustinaFischer@etu.uae.ac.ma</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/GINF2/students.xlsx
+++ b/resources/GINF2/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GINF2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2339E792-D5DD-4738-9AA1-29210D416F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A218A519-0B62-46D9-B703-0B767B0F0AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{13384122-1722-404B-9BCC-C24B4521C5B6}"/>
   </bookViews>
@@ -346,18 +346,6 @@
     <t>Remedios Burt</t>
   </si>
   <si>
-    <t>Pascale Lawson</t>
-  </si>
-  <si>
-    <t>Aristotle Ramsey</t>
-  </si>
-  <si>
-    <t>Neville Molina</t>
-  </si>
-  <si>
-    <t>Alexander Park</t>
-  </si>
-  <si>
     <t>05 49 24 53 91</t>
   </si>
   <si>
@@ -506,6 +494,18 @@
   </si>
   <si>
     <t>06 18 15 79 02</t>
+  </si>
+  <si>
+    <t>Bentarki</t>
+  </si>
+  <si>
+    <t>Nouhaila</t>
+  </si>
+  <si>
+    <t>Mairou</t>
+  </si>
+  <si>
+    <t>Haoua Amamatou Oumar</t>
   </si>
 </sst>
 </file>
@@ -877,7 +877,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="370" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,10 +910,10 @@
         <v>18000151</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="D2" s="1">
         <v>36606</v>
@@ -922,11 +922,11 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE(SUBSTITUTE(B2," ",""),".",SUBSTITUTE(C2," ",""),"@etu.uae.ac.ma")</f>
-        <v>AlexanderPark.NevilleMolina@etu.uae.ac.ma</v>
+        <v>Bentarki.Nouhaila@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -934,10 +934,10 @@
         <v>18000152</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="D3" s="1">
         <v>37021</v>
@@ -946,11 +946,11 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G51" si="0">CONCATENATE(SUBSTITUTE(B3," ",""),".",SUBSTITUTE(C3," ",""),"@etu.uae.ac.ma")</f>
-        <v>AristotleRamsey.PascaleLawson@etu.uae.ac.ma</v>
+        <v>Mairou.HaouaAmamatouOumar@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -970,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -994,7 +994,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -1042,7 +1042,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -1066,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -1090,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -1114,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -1138,7 +1138,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -1162,7 +1162,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -1186,7 +1186,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -1210,7 +1210,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1234,7 +1234,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1258,7 +1258,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -1282,7 +1282,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1306,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -1330,7 +1330,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -1354,7 +1354,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
@@ -1378,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
@@ -1402,7 +1402,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
@@ -1426,7 +1426,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
@@ -1450,7 +1450,7 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
@@ -1474,7 +1474,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
@@ -1498,7 +1498,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
@@ -1522,7 +1522,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
@@ -1546,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
@@ -1570,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
@@ -1594,7 +1594,7 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
@@ -1618,7 +1618,7 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
@@ -1642,7 +1642,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
@@ -1666,7 +1666,7 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
@@ -1690,7 +1690,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
@@ -1714,7 +1714,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
@@ -1738,7 +1738,7 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
@@ -1786,7 +1786,7 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
@@ -1810,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
@@ -1834,7 +1834,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -1858,7 +1858,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
@@ -1882,7 +1882,7 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
@@ -1906,7 +1906,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -1930,7 +1930,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
@@ -1954,7 +1954,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
@@ -1978,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2002,7 +2002,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
@@ -2026,7 +2026,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
@@ -2050,7 +2050,7 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2074,7 +2074,7 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
@@ -2098,7 +2098,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
